--- a/src/analysis_examples/circadb/results_jtk/cosinor_10424221_wdr67_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10424221_wdr67_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23655959753606437, 0.32243011939335975]</t>
+          <t>[0.23618473278699076, 0.32280498414243336]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.643441435334353e-12</v>
+        <v>9.009903934042995e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>7.643441435334353e-12</v>
+        <v>9.009903934042995e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5031579825569237</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5096035765859283, 0.5563249901645188]</t>
+          <t>[0.5095710986166835, 0.5563574681337635]</t>
         </is>
       </c>
       <c r="U2" t="n">
